--- a/target/test-classes/ulkeler.xlsx
+++ b/target/test-classes/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D26C0-B09E-4D0B-BEE7-1EA43C6F2A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D1956-A621-4CD2-AF42-71D98F279812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="575">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>ayse</t>
   </si>
 </sst>
 </file>
@@ -2168,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,6 +4882,12 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
@@ -4883,6 +4895,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -4890,6 +4905,14 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">

--- a/target/test-classes/ulkeler.xlsx
+++ b/target/test-classes/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D1956-A621-4CD2-AF42-71D98F279812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FFEFF8-E85E-4910-8C6B-669787EEBAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,16 +1742,23 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>ayse</t>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2100000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2172,15 +2179,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2196,6 +2203,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2252,6 +2262,9 @@
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2266,6 +2279,9 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -2321,6 +2337,9 @@
       </c>
       <c r="D10" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4867,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4882,12 +4901,6 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
@@ -4895,9 +4908,6 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -4905,14 +4915,6 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
